--- a/HW2_ALGORITHM_ARCHOTECTS/עבודה 2 באחזור מידע.xlsx
+++ b/HW2_ALGORITHM_ARCHOTECTS/עבודה 2 באחזור מידע.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11\Desktop\עבודה 2 אחזור מידע\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11\Desktop\HW2_ALGORITHM_ARCHOTECTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A75B28-6321-4A61-9614-491848530C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1071A-2095-4087-9CD4-AD1CF1FACCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{44489D53-49BA-43E2-94DE-A7350E0B8235}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{44489D53-49BA-43E2-94DE-A7350E0B8235}"/>
   </bookViews>
   <sheets>
     <sheet name="שאלה 1" sheetId="3" r:id="rId1"/>
@@ -642,16 +642,16 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216A98A-B0CF-42EE-8BB6-FC3457F211AF}">
   <dimension ref="C1:O70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4008,16 +4008,16 @@
     </row>
     <row r="14" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E14" s="20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F14" s="20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G14" s="20">
         <v>0.6</v>
@@ -4108,7 +4108,7 @@
         <v>0.7</v>
       </c>
       <c r="D24" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
@@ -4116,7 +4116,7 @@
         <v>0.8</v>
       </c>
       <c r="D25" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.3">
@@ -4124,7 +4124,7 @@
         <v>0.9</v>
       </c>
       <c r="D26" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.3">
@@ -4660,7 +4660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F05BC-1803-48A4-816B-D972F42DD00C}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/HW2_ALGORITHM_ARCHOTECTS/עבודה 2 באחזור מידע.xlsx
+++ b/HW2_ALGORITHM_ARCHOTECTS/עבודה 2 באחזור מידע.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11\Desktop\HW2_ALGORITHM_ARCHOTECTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1071A-2095-4087-9CD4-AD1CF1FACCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD66ED85-0B9F-4E84-81CC-D5A2DC2E1B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{44489D53-49BA-43E2-94DE-A7350E0B8235}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{44489D53-49BA-43E2-94DE-A7350E0B8235}"/>
   </bookViews>
   <sheets>
     <sheet name="שאלה 1" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>recall</t>
   </si>
@@ -50,67 +50,16 @@
     <t>TF</t>
   </si>
   <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Tbsp</t>
-  </si>
-  <si>
-    <t>Olive</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>doc 1</t>
-  </si>
-  <si>
-    <t>doc 2</t>
-  </si>
-  <si>
-    <t>doc 3</t>
-  </si>
-  <si>
     <t>IDF</t>
   </si>
   <si>
-    <t>log(3/3)=0</t>
-  </si>
-  <si>
-    <t>TF-IDF = TF X IDF</t>
-  </si>
-  <si>
     <t>user 1:</t>
   </si>
   <si>
-    <t>relevant: 3</t>
-  </si>
-  <si>
-    <t>retrieved:3</t>
-  </si>
-  <si>
-    <t>number of documents:100</t>
-  </si>
-  <si>
-    <t>retrieved and relevant: 3</t>
-  </si>
-  <si>
-    <t>recall = retrieved and relevant/relevant = 3/3=1</t>
-  </si>
-  <si>
-    <t>precision = retrieved and relevant/retrieved = 3/3=1</t>
-  </si>
-  <si>
     <t>user 2:</t>
-  </si>
-  <si>
-    <t>retrieved and relevant: 2</t>
-  </si>
-  <si>
-    <t>precision = retrieved and relevant/retrieved = 2/3</t>
-  </si>
-  <si>
-    <t>recall = retrieved and relevant/relevant = 2/3</t>
   </si>
   <si>
     <t>מסמכים רלוונטים שהוחזרו: 8</t>
@@ -229,18 +178,6 @@
     <t>4/6=0.667</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>doc1</t>
-  </si>
-  <si>
-    <t>doc2</t>
-  </si>
-  <si>
-    <t>doc3</t>
-  </si>
-  <si>
     <t>beef</t>
   </si>
   <si>
@@ -250,39 +187,9 @@
     <t>olive</t>
   </si>
   <si>
-    <t>garlic</t>
-  </si>
-  <si>
-    <t>cloves</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>tsp</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>oz</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>onion</t>
   </si>
   <si>
-    <t>pepper</t>
-  </si>
-  <si>
     <t>שאלה 1</t>
   </si>
   <si>
@@ -290,6 +197,123 @@
   </si>
   <si>
     <t>שאלה 3</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Page Indices</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11]</t>
+  </si>
+  <si>
+    <t>turkey</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>Term Count</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>URL4</t>
+  </si>
+  <si>
+    <t>URL5</t>
+  </si>
+  <si>
+    <t>URL6</t>
+  </si>
+  <si>
+    <t>URL7</t>
+  </si>
+  <si>
+    <t>URL8</t>
+  </si>
+  <si>
+    <t>URL9</t>
+  </si>
+  <si>
+    <t>URL10</t>
+  </si>
+  <si>
+    <t>URL11</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>number of documents:763</t>
+  </si>
+  <si>
+    <t>retrieved:11</t>
+  </si>
+  <si>
+    <t>retrieved and relevant: 11</t>
+  </si>
+  <si>
+    <t>precision = retrieved and relevant/retrieved = 11/11=1</t>
+  </si>
+  <si>
+    <t>retrieved and relevant: 8</t>
+  </si>
+  <si>
+    <t>precision = retrieved and relevant/retrieved = 8/11</t>
+  </si>
+  <si>
+    <t>relevant: 380(assuming half are relevant)</t>
+  </si>
+  <si>
+    <t>recall = retrieved and relevant/relevant =  11/380</t>
+  </si>
+  <si>
+    <t>recall = retrieved and relevant/relevant = 8/380</t>
   </si>
 </sst>
 </file>
@@ -341,10 +365,9 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -361,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -422,26 +445,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,12 +485,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="2"/>
     </xf>
@@ -507,19 +515,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3776,43 +3782,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J2" s="11" t="s">
-        <v>29</v>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J3" s="12" t="s">
-        <v>24</v>
+      <c r="J3" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J4" s="12" t="s">
-        <v>25</v>
+      <c r="J4" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="13" t="s">
-        <v>26</v>
+      <c r="J5" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J7" s="11" t="s">
-        <v>30</v>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J8" s="12" t="s">
-        <v>24</v>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="12" t="s">
-        <v>27</v>
+      <c r="J9" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J10" s="13" t="s">
-        <v>28</v>
+      <c r="J10" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3824,19 +3830,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3216A98A-B0CF-42EE-8BB6-FC3457F211AF}">
   <dimension ref="C1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M1" s="14" t="s">
-        <v>31</v>
+      <c r="M1" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="14"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4">
@@ -3873,51 +3879,51 @@
     </row>
     <row r="4" spans="3:14" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6">
         <v>0.4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G5" s="6">
         <v>0.3</v>
@@ -3926,126 +3932,126 @@
         <v>0.3</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K5" s="6">
         <v>0.1</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="14"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="I7" s="15" t="s">
-        <v>49</v>
+      <c r="I7" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="I8" s="15" t="s">
-        <v>50</v>
+      <c r="I8" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="I10" s="16" t="s">
-        <v>51</v>
+      <c r="I10" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C11" s="14"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="14"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>1</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>0.9</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>0.8</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>0.7</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>0.6</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>0.5</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>0.4</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>0.3</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <v>0.2</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <v>0.1</v>
       </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18" t="s">
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
         <v>0.6</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <v>0.6</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>0.75</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <v>0.75</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="18">
         <v>0.75</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>1</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <v>1</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17">
@@ -4148,12 +4154,12 @@
       <c r="D31" s="1"/>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="N34" s="14" t="s">
-        <v>52</v>
+      <c r="N34" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="14"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="4">
@@ -4190,37 +4196,37 @@
     </row>
     <row r="37" spans="4:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D37" s="7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M37" s="6">
         <v>0</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4234,131 +4240,131 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I38" s="6">
         <v>0.3</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M38" s="6">
         <v>0</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D40" s="14"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D41" s="15"/>
-      <c r="J41" s="15" t="s">
-        <v>53</v>
+      <c r="D41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="J42" s="15" t="s">
-        <v>54</v>
+      <c r="J42" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="J43" s="15"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="J44" s="16" t="s">
-        <v>55</v>
+      <c r="J44" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D46" s="14"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="14"/>
+      <c r="D47" s="12"/>
     </row>
     <row r="48" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="17">
+      <c r="D48" s="15">
         <v>1</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>0.9</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="16">
         <v>0.8</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="16">
         <v>0.7</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="16">
         <v>0.6</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="16">
         <v>0.5</v>
       </c>
-      <c r="J48" s="18">
+      <c r="J48" s="16">
         <v>0.4</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="16">
         <v>0.3</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="16">
         <v>0.2</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="16">
         <v>0.1</v>
       </c>
-      <c r="N48" s="18">
-        <v>0</v>
-      </c>
-      <c r="O48" s="18" t="s">
+      <c r="N48" s="16">
+        <v>0</v>
+      </c>
+      <c r="O48" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="20">
-        <v>0</v>
-      </c>
-      <c r="F49" s="20">
-        <v>0</v>
-      </c>
-      <c r="G49" s="20">
-        <v>0</v>
-      </c>
-      <c r="H49" s="20">
-        <v>0</v>
-      </c>
-      <c r="I49" s="20">
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
         <v>0.71</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>0.71</v>
       </c>
-      <c r="K49" s="20">
+      <c r="K49" s="18">
         <v>0.75</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="18">
         <v>0.75</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="18">
         <v>0.75</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="18">
         <v>0.75</v>
       </c>
-      <c r="O49" s="20" t="s">
+      <c r="O49" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4658,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F05BC-1803-48A4-816B-D972F42DD00C}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4670,453 +4676,939 @@
     <col min="2" max="2" width="14.83203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="8"/>
+    <col min="5" max="10" width="8.6640625" style="8"/>
+    <col min="11" max="11" width="11" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="L1" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B13" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="25" t="s">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>5.893909626719057E-3</v>
+      </c>
+      <c r="C21">
+        <v>3.929273084479371E-3</v>
+      </c>
+      <c r="D21">
+        <v>3.929273084479371E-3</v>
+      </c>
+      <c r="E21">
+        <v>5.893909626719057E-3</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
+        <v>8.2796688132474698E-3</v>
+      </c>
+      <c r="C22">
+        <v>1.839926402943882E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.759889604415824E-3</v>
+      </c>
+      <c r="E22">
+        <v>6.439742410303588E-3</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>6.5645514223194746E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.1881838074398249E-3</v>
+      </c>
+      <c r="D23">
+        <v>1.094091903719912E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.1881838074398249E-3</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>6.6568047337278108E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.4792899408284019E-3</v>
+      </c>
+      <c r="D24">
+        <v>7.3964497041420117E-4</v>
+      </c>
+      <c r="E24">
+        <v>3.6982248520710062E-3</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>6.628787878787879E-3</v>
+      </c>
+      <c r="C25">
+        <v>9.46969696969697E-4</v>
+      </c>
+      <c r="D25">
+        <v>9.46969696969697E-4</v>
+      </c>
+      <c r="E25">
+        <v>1.893939393939394E-3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>7.8809106830122592E-3</v>
+      </c>
+      <c r="C26">
+        <v>1.751313485113835E-3</v>
+      </c>
+      <c r="D26">
+        <v>8.7565674255691769E-4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>5.681818181818182E-3</v>
+      </c>
+      <c r="C27">
+        <v>2.840909090909091E-3</v>
+      </c>
+      <c r="D27">
+        <v>9.46969696969697E-4</v>
+      </c>
+      <c r="E27">
+        <v>1.893939393939394E-3</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27">
+        <v>1056</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28">
+        <v>8.3420229405630868E-3</v>
+      </c>
+      <c r="C28">
+        <v>2.0855057351407721E-3</v>
+      </c>
+      <c r="D28">
+        <v>1.0427528675703861E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.0855057351407721E-3</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28">
+        <v>959</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>3.8722168441432721E-3</v>
+      </c>
+      <c r="C29">
+        <v>8.7124878993223628E-3</v>
+      </c>
+      <c r="D29">
+        <v>2.9041626331074541E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.9041626331074541E-3</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29">
+        <v>1033</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>1.186623516720604E-2</v>
+      </c>
+      <c r="C30">
+        <v>7.551240560949299E-3</v>
+      </c>
+      <c r="D30">
+        <v>2.1574973031283709E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.2944983818770231E-2</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30">
+        <v>927</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="24">
-        <v>33</v>
-      </c>
-      <c r="C2" s="24">
-        <v>2</v>
-      </c>
-      <c r="D2" s="24">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="B31">
+        <v>4.3057050592034442E-3</v>
+      </c>
+      <c r="C31">
+        <v>3.229278794402584E-3</v>
+      </c>
+      <c r="D31">
+        <v>2.1528525296017221E-3</v>
+      </c>
+      <c r="E31">
+        <v>3.229278794402584E-3</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31">
+        <v>929</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="G32" s="22"/>
+      <c r="H32"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>9.5310179804324893E-2</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="G35" s="22"/>
+      <c r="H35"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="G36" s="22"/>
+      <c r="H36"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>5.6174958627303495E-4</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>6.1377300701957185E-4</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2.08556192132002E-4</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3.5247847560771048E-4</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1.8051170417485781E-4</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1.8051170417485781E-4</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1.987699265992178E-4</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2.7679626274247317E-4</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1.2337887353310671E-3</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3.0778314253280392E-4</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="G48" s="22"/>
+      <c r="H48"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="24">
-        <v>3</v>
-      </c>
-      <c r="D4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
-        <v>6</v>
-      </c>
-      <c r="C5" s="24">
-        <v>7</v>
-      </c>
-      <c r="D5" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="24">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24">
-        <v>19</v>
-      </c>
-      <c r="D6" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="24">
-        <v>2</v>
-      </c>
-      <c r="C7" s="24">
-        <v>7</v>
-      </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="24">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="24">
-        <v>5</v>
-      </c>
-      <c r="C9" s="24">
-        <v>5</v>
-      </c>
-      <c r="D9" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="24">
-        <v>13</v>
-      </c>
-      <c r="C10" s="24">
-        <v>3</v>
-      </c>
-      <c r="D10" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="24">
-        <v>18</v>
-      </c>
-      <c r="C11" s="24">
-        <v>6</v>
-      </c>
-      <c r="D11" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="24">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24">
-        <v>53</v>
-      </c>
-      <c r="D12" s="24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="24">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24">
-        <v>20</v>
-      </c>
-      <c r="D13" s="24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="24">
-        <v>4</v>
-      </c>
-      <c r="C14" s="24">
-        <v>5</v>
-      </c>
-      <c r="D14" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="24">
-        <v>6</v>
-      </c>
-      <c r="C15" s="24">
-        <v>9</v>
-      </c>
-      <c r="D15" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="24">
-        <v>2</v>
-      </c>
-      <c r="C16" s="24">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1.7878426698450501E-3</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2.7743526510480899E-3</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2.255639097744361E-3</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1.19189511323004E-3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>9.2478421701602961E-4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>7.5187969924812035E-4</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1.4898688915375446E-3</v>
-      </c>
-      <c r="C23" s="8">
-        <v>9.2478421701602961E-4</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3.7593984962406017E-4</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1.7878426698450535E-3</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2.1578298397040689E-3</v>
-      </c>
-      <c r="D24" s="8">
-        <v>7.5187969924812002E-4</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>23</v>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
